--- a/natmiOut/OldD0/LR-pairs_lrc2p/Rgma-Neo1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Rgma-Neo1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.11189318597601</v>
+        <v>1.316967666666667</v>
       </c>
       <c r="H2">
-        <v>1.11189318597601</v>
+        <v>3.950903</v>
       </c>
       <c r="I2">
-        <v>0.01736126479096364</v>
+        <v>0.02034337776957547</v>
       </c>
       <c r="J2">
-        <v>0.01736126479096364</v>
+        <v>0.02034337776957546</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.51962784514141</v>
+        <v>2.442429333333334</v>
       </c>
       <c r="N2">
-        <v>1.51962784514141</v>
+        <v>7.327288</v>
       </c>
       <c r="O2">
-        <v>0.05752615838860899</v>
+        <v>0.08913295894744963</v>
       </c>
       <c r="P2">
-        <v>0.05752615838860899</v>
+        <v>0.08913295894744963</v>
       </c>
       <c r="Q2">
-        <v>1.689663846232141</v>
+        <v>3.216600460118222</v>
       </c>
       <c r="R2">
-        <v>1.689663846232141</v>
+        <v>28.949404141064</v>
       </c>
       <c r="S2">
-        <v>0.0009987268681915548</v>
+        <v>0.001813265455588029</v>
       </c>
       <c r="T2">
-        <v>0.0009987268681915548</v>
+        <v>0.001813265455588029</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.11189318597601</v>
+        <v>1.316967666666667</v>
       </c>
       <c r="H3">
-        <v>1.11189318597601</v>
+        <v>3.950903</v>
       </c>
       <c r="I3">
-        <v>0.01736126479096364</v>
+        <v>0.02034337776957547</v>
       </c>
       <c r="J3">
-        <v>0.01736126479096364</v>
+        <v>0.02034337776957546</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.8202665710153</v>
+        <v>15.82990933333333</v>
       </c>
       <c r="N3">
-        <v>15.8202665710153</v>
+        <v>47.489728</v>
       </c>
       <c r="O3">
-        <v>0.5988829195411025</v>
+        <v>0.5776898596383203</v>
       </c>
       <c r="P3">
-        <v>0.5988829195411025</v>
+        <v>0.5776898596383203</v>
       </c>
       <c r="Q3">
-        <v>17.59044660063597</v>
+        <v>20.84747875826489</v>
       </c>
       <c r="R3">
-        <v>17.59044660063597</v>
+        <v>187.627308824384</v>
       </c>
       <c r="S3">
-        <v>0.01039736494493845</v>
+        <v>0.01175216304827538</v>
       </c>
       <c r="T3">
-        <v>0.01039736494493845</v>
+        <v>0.01175216304827537</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.11189318597601</v>
+        <v>1.316967666666667</v>
       </c>
       <c r="H4">
-        <v>1.11189318597601</v>
+        <v>3.950903</v>
       </c>
       <c r="I4">
-        <v>0.01736126479096364</v>
+        <v>0.02034337776957547</v>
       </c>
       <c r="J4">
-        <v>0.01736126479096364</v>
+        <v>0.02034337776957546</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.07639840972263</v>
+        <v>9.129750999999999</v>
       </c>
       <c r="N4">
-        <v>9.07639840972263</v>
+        <v>27.389253</v>
       </c>
       <c r="O4">
-        <v>0.3435909220702886</v>
+        <v>0.3331771814142301</v>
       </c>
       <c r="P4">
-        <v>0.3435909220702886</v>
+        <v>0.3331771814142301</v>
       </c>
       <c r="Q4">
-        <v>10.09198554497408</v>
+        <v>12.02358687171766</v>
       </c>
       <c r="R4">
-        <v>10.09198554497408</v>
+        <v>108.212281845459</v>
       </c>
       <c r="S4">
-        <v>0.005965172977833633</v>
+        <v>0.00677794926571206</v>
       </c>
       <c r="T4">
-        <v>0.005965172977833633</v>
+        <v>0.006777949265712058</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.3188011236591</v>
+        <v>43.63696533333334</v>
       </c>
       <c r="H5">
-        <v>43.3188011236591</v>
+        <v>130.910896</v>
       </c>
       <c r="I5">
-        <v>0.6763861728991344</v>
+        <v>0.6740661088064187</v>
       </c>
       <c r="J5">
-        <v>0.6763861728991344</v>
+        <v>0.6740661088064185</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.51962784514141</v>
+        <v>2.442429333333334</v>
       </c>
       <c r="N5">
-        <v>1.51962784514141</v>
+        <v>7.327288</v>
       </c>
       <c r="O5">
-        <v>0.05752615838860899</v>
+        <v>0.08913295894744963</v>
       </c>
       <c r="P5">
-        <v>0.05752615838860899</v>
+        <v>0.08913295894744963</v>
       </c>
       <c r="Q5">
-        <v>65.82845640565537</v>
+        <v>106.5802041477831</v>
       </c>
       <c r="R5">
-        <v>65.82845640565537</v>
+        <v>959.2218373300481</v>
       </c>
       <c r="S5">
-        <v>0.03890989811406067</v>
+        <v>0.06008150680410963</v>
       </c>
       <c r="T5">
-        <v>0.03890989811406067</v>
+        <v>0.06008150680410961</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>43.3188011236591</v>
+        <v>43.63696533333334</v>
       </c>
       <c r="H6">
-        <v>43.3188011236591</v>
+        <v>130.910896</v>
       </c>
       <c r="I6">
-        <v>0.6763861728991344</v>
+        <v>0.6740661088064187</v>
       </c>
       <c r="J6">
-        <v>0.6763861728991344</v>
+        <v>0.6740661088064185</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.8202665710153</v>
+        <v>15.82990933333333</v>
       </c>
       <c r="N6">
-        <v>15.8202665710153</v>
+        <v>47.489728</v>
       </c>
       <c r="O6">
-        <v>0.5988829195411025</v>
+        <v>0.5776898596383203</v>
       </c>
       <c r="P6">
-        <v>0.5988829195411025</v>
+        <v>0.5776898596383203</v>
       </c>
       <c r="Q6">
-        <v>685.314981313084</v>
+        <v>690.7692048084765</v>
       </c>
       <c r="R6">
-        <v>685.314981313084</v>
+        <v>6216.922843276288</v>
       </c>
       <c r="S6">
-        <v>0.4050761259630665</v>
+        <v>0.3894011557833288</v>
       </c>
       <c r="T6">
-        <v>0.4050761259630665</v>
+        <v>0.3894011557833286</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>43.3188011236591</v>
+        <v>43.63696533333334</v>
       </c>
       <c r="H7">
-        <v>43.3188011236591</v>
+        <v>130.910896</v>
       </c>
       <c r="I7">
-        <v>0.6763861728991344</v>
+        <v>0.6740661088064187</v>
       </c>
       <c r="J7">
-        <v>0.6763861728991344</v>
+        <v>0.6740661088064185</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.07639840972263</v>
+        <v>9.129750999999999</v>
       </c>
       <c r="N7">
-        <v>9.07639840972263</v>
+        <v>27.389253</v>
       </c>
       <c r="O7">
-        <v>0.3435909220702886</v>
+        <v>0.3331771814142301</v>
       </c>
       <c r="P7">
-        <v>0.3435909220702886</v>
+        <v>0.3331771814142301</v>
       </c>
       <c r="Q7">
-        <v>393.1786976298703</v>
+        <v>398.3946278889653</v>
       </c>
       <c r="R7">
-        <v>393.1786976298703</v>
+        <v>3585.551651000688</v>
       </c>
       <c r="S7">
-        <v>0.2324001488220072</v>
+        <v>0.2245834462189803</v>
       </c>
       <c r="T7">
-        <v>0.2324001488220072</v>
+        <v>0.2245834462189802</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.6137862834343</v>
+        <v>19.78298933333333</v>
       </c>
       <c r="H8">
-        <v>19.6137862834343</v>
+        <v>59.348968</v>
       </c>
       <c r="I8">
-        <v>0.3062525623099021</v>
+        <v>0.305590513424006</v>
       </c>
       <c r="J8">
-        <v>0.3062525623099021</v>
+        <v>0.3055905134240059</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.51962784514141</v>
+        <v>2.442429333333334</v>
       </c>
       <c r="N8">
-        <v>1.51962784514141</v>
+        <v>7.327288</v>
       </c>
       <c r="O8">
-        <v>0.05752615838860899</v>
+        <v>0.08913295894744963</v>
       </c>
       <c r="P8">
-        <v>0.05752615838860899</v>
+        <v>0.08913295894744963</v>
       </c>
       <c r="Q8">
-        <v>29.80565578495941</v>
+        <v>48.31855344875378</v>
       </c>
       <c r="R8">
-        <v>29.80565578495941</v>
+        <v>434.866981038784</v>
       </c>
       <c r="S8">
-        <v>0.01761753340635677</v>
+        <v>0.02723818668775198</v>
       </c>
       <c r="T8">
-        <v>0.01761753340635677</v>
+        <v>0.02723818668775198</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.6137862834343</v>
+        <v>19.78298933333333</v>
       </c>
       <c r="H9">
-        <v>19.6137862834343</v>
+        <v>59.348968</v>
       </c>
       <c r="I9">
-        <v>0.3062525623099021</v>
+        <v>0.305590513424006</v>
       </c>
       <c r="J9">
-        <v>0.3062525623099021</v>
+        <v>0.3055905134240059</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.8202665710153</v>
+        <v>15.82990933333333</v>
       </c>
       <c r="N9">
-        <v>15.8202665710153</v>
+        <v>47.489728</v>
       </c>
       <c r="O9">
-        <v>0.5988829195411025</v>
+        <v>0.5776898596383203</v>
       </c>
       <c r="P9">
-        <v>0.5988829195411025</v>
+        <v>0.5776898596383203</v>
       </c>
       <c r="Q9">
-        <v>310.2953274708541</v>
+        <v>313.1629274889671</v>
       </c>
       <c r="R9">
-        <v>310.2953274708541</v>
+        <v>2818.466347400704</v>
       </c>
       <c r="S9">
-        <v>0.1834094286330976</v>
+        <v>0.1765365408067163</v>
       </c>
       <c r="T9">
-        <v>0.1834094286330976</v>
+        <v>0.1765365408067162</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.6137862834343</v>
+        <v>19.78298933333333</v>
       </c>
       <c r="H10">
-        <v>19.6137862834343</v>
+        <v>59.348968</v>
       </c>
       <c r="I10">
-        <v>0.3062525623099021</v>
+        <v>0.305590513424006</v>
       </c>
       <c r="J10">
-        <v>0.3062525623099021</v>
+        <v>0.3055905134240059</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.07639840972263</v>
+        <v>9.129750999999999</v>
       </c>
       <c r="N10">
-        <v>9.07639840972263</v>
+        <v>27.389253</v>
       </c>
       <c r="O10">
-        <v>0.3435909220702886</v>
+        <v>0.3331771814142301</v>
       </c>
       <c r="P10">
-        <v>0.3435909220702886</v>
+        <v>0.3331771814142301</v>
       </c>
       <c r="Q10">
-        <v>178.0225386316026</v>
+        <v>180.6137666489893</v>
       </c>
       <c r="R10">
-        <v>178.0225386316026</v>
+        <v>1625.523899840904</v>
       </c>
       <c r="S10">
-        <v>0.1052256002704477</v>
+        <v>0.1018157859295378</v>
       </c>
       <c r="T10">
-        <v>0.1052256002704477</v>
+        <v>0.1018157859295377</v>
       </c>
     </row>
   </sheetData>
